--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="schedule" vbProcedure="false">Sheet1!$A$1:$K$21</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="schedule" vbProcedure="false">Sheet1!$A$1:$K$20</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -160,22 +160,13 @@
     <t xml:space="preserve">topics/dynamic_plotting/lab_dynamic_plot1.html</t>
   </si>
   <si>
-    <t xml:space="preserve">Intro to R-Shiny</t>
+    <t xml:space="preserve">R-Shiny</t>
   </si>
   <si>
     <t xml:space="preserve">topics/Shiny/slide_shiny1.html</t>
   </si>
   <si>
     <t xml:space="preserve">topics/Shiny/lab_shiny1.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R-Shiny part-II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">topics/Shiny/slide_shiny2.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">topics/Shiny/lab_shiny2.html</t>
   </si>
   <si>
     <t xml:space="preserve">Wrap-up day II</t>
@@ -292,7 +283,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -318,6 +309,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -574,7 +569,7 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -701,10 +696,10 @@
       <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="0"/>
-      <c r="G5" s="0"/>
-      <c r="H5" s="0"/>
-      <c r="I5" s="0"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="3" t="n">
@@ -817,17 +812,17 @@
       <c r="E11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="0"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="0"/>
-      <c r="I11" s="0"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="3" t="n">
         <v>0.638888888888889</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>0.680555555555556</v>
+        <v>0.697916666666667</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>34</v>
@@ -846,206 +841,183 @@
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="3" t="n">
-        <v>0.680555555555556</v>
+        <v>0.697916666666667</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>0.697916666666667</v>
-      </c>
-      <c r="E13" s="4" t="s">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
       <c r="J13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="3" t="n">
-        <v>0.697916666666667</v>
-      </c>
-      <c r="D14" s="3" t="n">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="0"/>
-      <c r="H14" s="0"/>
-      <c r="I14" s="0"/>
-      <c r="J14" s="6"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0"/>
-      <c r="B15" s="0"/>
-      <c r="C15" s="0"/>
-      <c r="D15" s="0"/>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
-      <c r="G15" s="0"/>
-      <c r="H15" s="0"/>
-      <c r="I15" s="0"/>
-      <c r="J15" s="0"/>
-      <c r="K15" s="5"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
-      <c r="G16" s="0"/>
-      <c r="H16" s="0"/>
-      <c r="I16" s="0"/>
-      <c r="J16" s="0"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0"/>
-      <c r="B17" s="0"/>
-      <c r="C17" s="0"/>
-      <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
-      <c r="F17" s="0"/>
-      <c r="G17" s="0"/>
-      <c r="H17" s="0"/>
-      <c r="I17" s="0"/>
-      <c r="J17" s="0"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0"/>
-      <c r="B18" s="0"/>
-      <c r="C18" s="0"/>
-      <c r="D18" s="0"/>
-      <c r="E18" s="0"/>
-      <c r="F18" s="0"/>
-      <c r="G18" s="0"/>
-      <c r="H18" s="0"/>
-      <c r="I18" s="0"/>
-      <c r="J18" s="0"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0"/>
-      <c r="B19" s="0"/>
-      <c r="C19" s="0"/>
-      <c r="D19" s="0"/>
-      <c r="E19" s="0"/>
-      <c r="F19" s="0"/>
-      <c r="G19" s="0"/>
-      <c r="H19" s="0"/>
-      <c r="I19" s="0"/>
-      <c r="J19" s="0"/>
-      <c r="K19" s="5"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0"/>
-      <c r="B20" s="0"/>
-      <c r="C20" s="0"/>
-      <c r="D20" s="0"/>
-      <c r="E20" s="0"/>
-      <c r="F20" s="0"/>
-      <c r="G20" s="0"/>
-      <c r="H20" s="0"/>
-      <c r="I20" s="0"/>
-      <c r="J20" s="0"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0"/>
-      <c r="B21" s="0"/>
-      <c r="C21" s="0"/>
-      <c r="D21" s="0"/>
-      <c r="E21" s="0"/>
-      <c r="F21" s="0"/>
-      <c r="G21" s="0"/>
-      <c r="H21" s="0"/>
-      <c r="I21" s="0"/>
-      <c r="J21" s="0"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0"/>
-      <c r="B22" s="0"/>
-      <c r="C22" s="0"/>
-      <c r="D22" s="0"/>
-      <c r="E22" s="0"/>
-      <c r="F22" s="0"/>
-      <c r="G22" s="0"/>
-      <c r="H22" s="0"/>
-      <c r="I22" s="0"/>
-      <c r="J22" s="0"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0"/>
-      <c r="B23" s="0"/>
-      <c r="C23" s="0"/>
-      <c r="D23" s="0"/>
-      <c r="E23" s="0"/>
-      <c r="F23" s="0"/>
-      <c r="G23" s="0"/>
-      <c r="H23" s="0"/>
-      <c r="I23" s="0"/>
-      <c r="J23" s="0"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0"/>
-      <c r="B24" s="0"/>
-      <c r="C24" s="0"/>
-      <c r="D24" s="0"/>
-      <c r="E24" s="0"/>
-      <c r="F24" s="0"/>
-      <c r="G24" s="0"/>
-      <c r="H24" s="0"/>
-      <c r="I24" s="0"/>
-      <c r="J24" s="0"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0"/>
-      <c r="B25" s="0"/>
-      <c r="C25" s="0"/>
-      <c r="D25" s="0"/>
-      <c r="E25" s="0"/>
-      <c r="F25" s="0"/>
-      <c r="G25" s="0"/>
-      <c r="H25" s="0"/>
-      <c r="I25" s="0"/>
-      <c r="J25" s="0"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0"/>
-      <c r="B26" s="0"/>
-      <c r="C26" s="0"/>
-      <c r="D26" s="0"/>
-      <c r="E26" s="0"/>
-      <c r="F26" s="0"/>
-      <c r="G26" s="0"/>
-      <c r="H26" s="0"/>
-      <c r="I26" s="0"/>
-      <c r="J26" s="0"/>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0"/>
-      <c r="B27" s="0"/>
-      <c r="C27" s="0"/>
-      <c r="D27" s="0"/>
-      <c r="E27" s="0"/>
-      <c r="F27" s="0"/>
-      <c r="G27" s="0"/>
-      <c r="H27" s="0"/>
-      <c r="I27" s="0"/>
-      <c r="J27" s="0"/>
-    </row>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
